--- a/callPostgreEx/FifaWC2022/filesexport.xlsx
+++ b/callPostgreEx/FifaWC2022/filesexport.xlsx
@@ -14,7 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
+  <si>
+    <t>Confederation</t>
+  </si>
+  <si>
+    <t>Head coach</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>FIFA code</t>
+  </si>
+  <si>
+    <t>Team name</t>
+  </si>
+  <si>
+    <t>OFC: Oceania(1966–2006)AFC: Asia(2006–present)</t>
+  </si>
+  <si>
+    <t>Graham Arnold</t>
+  </si>
+  <si>
+    <t>Mat Ryan</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
   <si>
     <t>Australia</t>
   </si>
@@ -274,7 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,6 +341,44 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="flag-of-Denmark.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="762000"/>
+          <a:ext cx="514350" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -325,20 +390,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="flag-of-Denmark.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="952500"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="flag-of-Australia.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1076325"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -363,7 +428,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="flag-of-Australia.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="flag-of-Australia.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -376,7 +441,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="1266825"/>
+          <a:off x="5486400" y="1390650"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -401,20 +466,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="flag-of-Australia.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="1581150"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="flag-of-United-States-of-America.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1704975"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -432,28 +497,28 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="flag-of-United-States-of-America.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="1895475"/>
-          <a:ext cx="514350" cy="247650"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76114</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="flag-of-Scotland.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2019300"/>
+          <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -477,7 +542,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="flag-of-Scotland.png"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="flag-of-Scotland.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -490,7 +555,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="2209800"/>
+          <a:off x="5486400" y="2333625"/>
           <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -505,69 +570,69 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="flag-of-Italy.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2647950"/>
+          <a:ext cx="514350" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76114</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>15834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="flag-of-Scotland.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="2524125"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="flag-of-England.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2962275"/>
           <a:ext cx="685714" cy="330159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="flag-of-Italy.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="2838450"/>
-          <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,20 +656,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="flag-of-England.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="3152775"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="flag-of-Scotland.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3276600"/>
           <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -629,20 +694,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="flag-of-Scotland.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="3467100"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="flag-of-England.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3590925"/>
           <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -660,28 +725,28 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76114</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15834</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="flag-of-England.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="3781425"/>
-          <a:ext cx="685714" cy="330159"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="flag-of-Japan.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3905250"/>
+          <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,20 +770,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="flag-of-Japan.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="4095750"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="flag-of-Denmark.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="4219575"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -743,20 +808,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="flag-of-Denmark.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="4410075"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="flag-of-Italy.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="4533900"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -774,28 +839,28 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="flag-of-Italy.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="4724400"/>
-          <a:ext cx="514350" cy="247650"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76114</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="flag-of-Scotland.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="4848225"/>
+          <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,20 +884,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="flag-of-Scotland.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="5038725"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="flag-of-England.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5162550"/>
           <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -857,20 +922,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="flag-of-England.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="5353050"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="flag-of-Scotland.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5476875"/>
           <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -885,17 +950,55 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="flag-of-Germany.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5791200"/>
+          <a:ext cx="514350" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76114</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="flag-of-Scotland.png"/>
+        <xdr:cNvPr id="19" name="Picture 18" descr="flag-of-Scotland.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -908,7 +1011,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="5667375"/>
+          <a:off x="5486400" y="6105525"/>
           <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -922,70 +1025,32 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="flag-of-Germany.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="5981700"/>
+        <xdr:cNvPr id="20" name="Picture 19" descr="flag-of-Australia.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="6419850"/>
           <a:ext cx="514350" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76114</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15834</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="flag-of-Scotland.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="6296025"/>
-          <a:ext cx="685714" cy="330159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,7 +1074,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="flag-of-Australia.png"/>
+        <xdr:cNvPr id="21" name="Picture 20" descr="flag-of-Australia.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1022,7 +1087,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="6610350"/>
+          <a:off x="5486400" y="6734175"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1047,7 +1112,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="flag-of-Australia.png"/>
+        <xdr:cNvPr id="22" name="Picture 21" descr="flag-of-Australia.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1060,7 +1125,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="6924675"/>
+          <a:off x="5486400" y="7048500"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1085,20 +1150,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="flag-of-Australia.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="7239000"/>
+        <xdr:cNvPr id="23" name="Picture 22" descr="flag-of-Spain.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="7362825"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1123,20 +1188,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="flag-of-Spain.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="7553325"/>
+        <xdr:cNvPr id="24" name="Picture 23" descr="flag-of-Japan.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="7677150"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1161,20 +1226,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="flag-of-Japan.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="7867650"/>
+        <xdr:cNvPr id="25" name="Picture 24" descr="flag-of-Australia.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="7991475"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1199,7 +1264,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="flag-of-Australia.png"/>
+        <xdr:cNvPr id="26" name="Picture 25" descr="flag-of-Australia.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1212,7 +1277,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="8181975"/>
+          <a:off x="5486400" y="8305800"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1237,7 +1302,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="flag-of-Australia.png"/>
+        <xdr:cNvPr id="27" name="Picture 26" descr="flag-of-Australia.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1250,45 +1315,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="8496300"/>
-          <a:ext cx="514350" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="flag-of-Australia.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="8810625"/>
+          <a:off x="5486400" y="8620125"/>
           <a:ext cx="514350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1586,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1599,68 +1626,123 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="25" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33702</v>
+      </c>
+      <c r="E5" s="2">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>33702</v>
+        <v>32521</v>
       </c>
       <c r="E6" s="2">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="25" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>32521</v>
+        <v>31133</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -1669,414 +1751,414 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="25" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>31133</v>
+        <v>34452</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="25" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>34452</v>
+        <v>36324</v>
       </c>
       <c r="E9" s="2">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="25" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>36324</v>
+        <v>35970</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="25" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>35970</v>
+        <v>35197</v>
       </c>
       <c r="E11" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="25" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>35197</v>
+        <v>33813</v>
       </c>
       <c r="E12" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="25" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>33813</v>
+        <v>33223</v>
       </c>
       <c r="E13" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="25" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
-        <v>33223</v>
+        <v>36090</v>
       </c>
       <c r="E14" s="2">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="25" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
-        <v>36090</v>
+        <v>35509</v>
       </c>
       <c r="E15" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="25" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
-        <v>35509</v>
+        <v>36829</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="25" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
-        <v>36829</v>
+        <v>35251</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="25" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
-        <v>35251</v>
+        <v>33131</v>
       </c>
       <c r="E18" s="2">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="25" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
-        <v>33131</v>
+        <v>36101</v>
       </c>
       <c r="E19" s="2">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="25" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
-        <v>36101</v>
+        <v>35953</v>
       </c>
       <c r="E20" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="25" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2">
-        <v>35953</v>
+        <v>34035</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="25" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
-        <v>34035</v>
+        <v>35953</v>
       </c>
       <c r="E22" s="2">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="25" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2">
-        <v>35953</v>
+        <v>37126</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
@@ -2085,221 +2167,195 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2">
-        <v>37126</v>
+        <v>33273</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="25" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
-        <v>33273</v>
+        <v>34179</v>
       </c>
       <c r="E25" s="2">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F25" s="2">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="25" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2">
-        <v>34179</v>
+        <v>34957</v>
       </c>
       <c r="E26" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" s="2">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="25" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2">
-        <v>34957</v>
+        <v>33256</v>
       </c>
       <c r="E27" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="25" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
-        <v>33256</v>
+        <v>38245</v>
       </c>
       <c r="E28" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="25" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
-        <v>38245</v>
+        <v>33588</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="25" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
-        <v>33588</v>
+        <v>34912</v>
       </c>
       <c r="E30" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="25" customHeight="1">
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="2">
-        <v>34912</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
